--- a/biology/Biochimie/Modification_post-traductionnelle/Modification_post-traductionnelle.xlsx
+++ b/biology/Biochimie/Modification_post-traductionnelle/Modification_post-traductionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une modification post-traductionnelle est une modification chimique d'une protéine, réalisée le plus souvent par une enzyme, après sa synthèse ou au cours de sa vie dans la cellule. Généralement cette modification entraîne un changement de la fonction de la protéine considérée, que ce soit au niveau de son action, de sa demi-vie, ou de sa localisation cellulaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Addition d'un groupe fonctionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>l'acétylation, soit l'addition d'un groupe acétyl provenant de l'acétyl-CoA, catalysé par un petit nombre d'enzyme (de type N-acétyl transférases), généralement au niveau de l'extrémité N-terminal d'une protéine ; néanmoins, cette modification qui intervient durant la synthèse de la proteine est essentiellement cotraductionelle bien que généralement considérée, à tort, comme une modification post-traductionelle ;
 l'alkylation, soit l'addition d'un groupe alkyl, méthyl ou éthyl ;
@@ -561,7 +575,9 @@
           <t>Addition de groupes peptidiques ou de protéines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>l'ubiquitination, qui est une liaison covalente d'ubiquitine sur une lysine acceptrice.
 la sumoylation, qui est une liaison covalente de protéine SUMO, généralement sur une lysine acceptrice.
@@ -594,7 +610,9 @@
           <t>Changement de la nature chimique des acides aminés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>la citrullination, ou déimination soit la conversion d'arginine en citrulline.
 la déamidation, soit la conversion de glutamine en acide glutamique ou de l'asparagine en acide aspartique</t>
@@ -625,7 +643,9 @@
           <t>Changements structuraux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">les ponts disulfures qui résultent dans la liaison chimique des groupements SH de deux cystéines.
 Les clivages protéiques par une protéase d'un lien peptidique.
